--- a/Result/spheres/Sum_p.xlsx
+++ b/Result/spheres/Sum_p.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -66,6 +66,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,14 +154,11 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
@@ -199,28 +197,28 @@
         <v>0.6</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>0.00102083349</v>
+        <v>0.000284833888</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>0.00104676907</v>
+        <v>0.000294399245</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.00105817245</v>
+        <v>0.000300812731</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.00105459341</v>
+        <v>0.00029854279</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>0.00104291881</v>
+        <v>0.000291850237</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.000766149828</v>
+        <v>0.000108991442</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.000747053066</v>
+        <v>0.000105698919</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>0.000962347298</v>
+        <v>0.00025898874</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,28 +226,28 @@
         <v>0.8</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0.00103275029</v>
+        <v>0.000290535693</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0.00106314182</v>
+        <v>0.000303999938</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0.00107424624</v>
+        <v>0.00031015626</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.00106227394</v>
+        <v>0.000302702217</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0.00105064808</v>
+        <v>0.000295799866</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.000779212504</v>
+        <v>0.000114684412</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.000766717872</v>
+        <v>0.000112504992</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0.000965423079</v>
+        <v>0.000260804302</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -257,28 +255,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.00103643695</v>
+        <v>0.000291546521</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0.00107280114</v>
+        <v>0.00030961583</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0.00108412662</v>
+        <v>0.000315823183</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.00106362036</v>
+        <v>0.000303020333</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0.00105178125</v>
+        <v>0.000295799859</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.000786182178</v>
+        <v>0.000118212242</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.000776627615</v>
+        <v>0.000116504793</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0.000496559321</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>0.000482071626</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.000966233871</v>
+        <v>0.000261224087</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,28 +290,34 @@
         <v>1.2</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0.00103699622</v>
+        <v>0.000290787025</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0.00107996572</v>
+        <v>0.000313647681</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.00109142538</v>
+        <v>0.00031986313</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.00106276524</v>
+        <v>0.000301897402</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.00105077564</v>
+        <v>0.000294423656</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.000791324145</v>
+        <v>0.000120948737</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.000783533767</v>
+        <v>0.00011957558</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0.000541304553</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>0.000511402056</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0.000966342832</v>
+        <v>0.000261176345</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,28 +325,34 @@
         <v>1.4</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0.00103603397</v>
+        <v>0.000289180682</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0.00108576879</v>
+        <v>0.000316810727</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.00109723029</v>
+        <v>0.000322967107</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.00106088909</v>
+        <v>0.000300090242</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.00104879292</v>
+        <v>0.000292419576</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.000795574361</v>
+        <v>0.000123377713</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.000788982854</v>
+        <v>0.000122213097</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.000584616915</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.000539547504</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>0.000966138959</v>
+        <v>0.000260916579</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,28 +360,34 @@
         <v>1.6</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0.00103423229</v>
+        <v>0.000287114996</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0.00109069203</v>
+        <v>0.000319419838</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.00110203904</v>
+        <v>0.000325458071</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.00105847024</v>
+        <v>0.00029791828</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.00104630652</v>
+        <v>0.00029008528</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.000799324551</v>
+        <v>0.000125625917</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.000793607717</v>
+        <v>0.000124614382</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0.00062678038</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.000566819303</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.000965768272</v>
+        <v>0.000260547105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,28 +395,34 @@
         <v>1.8</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>0.00103193069</v>
+        <v>0.000284774534</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>0.00109498197</v>
+        <v>0.000321630801</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.00110611882</v>
+        <v>0.000327507425</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.00105573165</v>
+        <v>0.00029552901</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.00104351535</v>
+        <v>0.000287556588</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.000802769181</v>
+        <v>0.000127768549</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.000797721024</v>
+        <v>0.000126874582</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.000667979287</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0.000593403804</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.000965298462</v>
+        <v>0.000260109539</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,28 +430,34 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>0.00102930919</v>
+        <v>0.000282262061</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>0.00109878828</v>
+        <v>0.000323534041</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>0.00110963674</v>
+        <v>0.000329246368</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.00105279443</v>
+        <v>0.000292997134</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>0.0010405387</v>
+        <v>0.000284907589</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.000806015879</v>
+        <v>0.000129842874</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0.000801496534</v>
+        <v>0.000129042128</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0.000708343038</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0.000619425195</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>0.000964772469</v>
+        <v>0.000259638928</v>
       </c>
     </row>
   </sheetData>
@@ -444,14 +478,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1" s="0" t="s">
@@ -472,10 +503,10 @@
         <v>0.6</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.000735338236</v>
+        <v>9.74936767E-005</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.000716515366</v>
+        <v>9.4410458E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,10 +514,10 @@
         <v>0.8</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.000766997518</v>
+        <v>0.000110094614</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.000754617805</v>
+        <v>0.000107978428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.00079248901</v>
+        <v>0.000120600704</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0.000782886139</v>
+        <v>0.000118870023</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,10 +536,10 @@
         <v>1.2</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.000817549214</v>
+        <v>0.000130812609</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.0008095891</v>
+        <v>0.000129350724</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,10 +547,10 @@
         <v>1.4</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.000843476265</v>
+        <v>0.000141143327</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.000836616175</v>
+        <v>0.000139841805</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,10 +558,10 @@
         <v>1.6</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.000870512179</v>
+        <v>0.000151628147</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.000864443711</v>
+        <v>0.000150441306</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,10 +569,10 @@
         <v>1.8</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.000898612613</v>
+        <v>0.000162262855</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.000893142006</v>
+        <v>0.000161162246</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,16 +580,16 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>0.000927651402</v>
+        <v>0.000173028088</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>0.000922648849</v>
+        <v>0.000171994792</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Result/spheres/Sum_p.xlsx
+++ b/Result/spheres/Sum_p.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">PSM-bne</t>
   </si>
   <si>
+    <t xml:space="preserve">IBM1</t>
+  </si>
+  <si>
     <t xml:space="preserve">IBM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBM1</t>
   </si>
   <si>
     <t xml:space="preserve">MR200</t>
@@ -126,8 +126,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -155,308 +159,311 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.000284833888</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>0.000294399245</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>0.000300812731</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.00029854279</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.000291850237</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>0.000108991442</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.000105698919</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="2" t="n">
         <v>0.00025898874</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.000290535693</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.000303999938</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>0.00031015626</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.000302702217</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.000295799866</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.000114684412</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.000112504992</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="2" t="n">
         <v>0.000260804302</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.000291546521</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.00030961583</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>0.000315823183</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.000303020333</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.000295799859</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.000118212242</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.000116504793</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
+        <v>0.000482071626</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>0.000496559321</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>0.000482071626</v>
-      </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="2" t="n">
         <v>0.000261224087</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.000290787025</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.000313647681</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>0.00031986313</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.000301897402</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.000294423656</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.000120948737</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.00011957558</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I5" s="2" t="n">
+        <v>0.000511402056</v>
+      </c>
+      <c r="J5" s="2" t="n">
         <v>0.000541304553</v>
       </c>
-      <c r="J5" s="1" t="n">
-        <v>0.000511402056</v>
-      </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="2" t="n">
         <v>0.000261176345</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.000289180682</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.000316810727</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>0.000322967107</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.000300090242</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.000292419576</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.000123377713</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.000122213097</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" s="2" t="n">
+        <v>0.000539547504</v>
+      </c>
+      <c r="J6" s="2" t="n">
         <v>0.000584616915</v>
       </c>
-      <c r="J6" s="1" t="n">
-        <v>0.000539547504</v>
-      </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" s="2" t="n">
         <v>0.000260916579</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.000287114996</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.000319419838</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>0.000325458071</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.00029791828</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.00029008528</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.000125625917</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.000124614382</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I7" s="2" t="n">
+        <v>0.000566819303</v>
+      </c>
+      <c r="J7" s="2" t="n">
         <v>0.00062678038</v>
       </c>
-      <c r="J7" s="1" t="n">
-        <v>0.000566819303</v>
-      </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="2" t="n">
         <v>0.000260547105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>0.000284774534</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.000321630801</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>0.000327507425</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.00029552901</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.000287556588</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.000127768549</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.000126874582</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="2" t="n">
+        <v>0.000593403804</v>
+      </c>
+      <c r="J8" s="2" t="n">
         <v>0.000667979287</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>0.000593403804</v>
-      </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="2" t="n">
         <v>0.000260109539</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.000282262061</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.000323534041</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>0.000329246368</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.000292997134</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.000284907589</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.000129842874</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.000129042128</v>
       </c>
-      <c r="I9" s="1" t="n">
+      <c r="I9" s="2" t="n">
+        <v>0.000619425195</v>
+      </c>
+      <c r="J9" s="2" t="n">
         <v>0.000708343038</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>0.000619425195</v>
-      </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="2" t="n">
         <v>0.000259638928</v>
       </c>
     </row>
@@ -479,110 +486,113 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="1" sqref="I1:I9 I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <v>9.74936767E-005</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <v>9.4410458E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>0.000110094614</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.000107978428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>0.000120600704</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.000118870023</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>0.000130812609</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.000129350724</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>0.000141143327</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.000139841805</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>0.000151628147</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.000150441306</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>0.000162262855</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.000161162246</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>0.000173028088</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.000171994792</v>
       </c>
     </row>
